--- a/LaborData.xlsx
+++ b/LaborData.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed701712ec45212a/Desktop/UDS_Dataset/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_9FF7B40ECC7BFA0B3432AD4A805F2025EF7CCB30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272282A8-0AFE-4C21-9615-C70DCC1FD701}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Labor data" sheetId="1" r:id="rId4"/>
+    <sheet name="Labor data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="kOKX3TQmODqn2USgJmlpFcF7eV/ONaoQAGq5hBI+UIs="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -81,22 +90,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -106,42 +115,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -331,20 +347,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -370,87 +391,87 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>61.5</v>
+        <v>61.2</v>
       </c>
       <c r="D2" s="3">
-        <v>57.5</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3">
-        <v>3510889.0</v>
+        <v>3561568</v>
       </c>
       <c r="F2" s="3">
-        <v>3287784.0</v>
+        <v>3431674</v>
       </c>
       <c r="G2" s="3">
-        <v>223105.0</v>
+        <v>129894</v>
       </c>
       <c r="H2" s="3">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>61.5</v>
+        <v>61.3</v>
       </c>
       <c r="D3" s="3">
-        <v>57.7</v>
+        <v>59.1</v>
       </c>
       <c r="E3" s="3">
-        <v>3516077.0</v>
+        <v>3572577</v>
       </c>
       <c r="F3" s="3">
-        <v>3297125.0</v>
+        <v>3442744</v>
       </c>
       <c r="G3" s="3">
-        <v>218952.0</v>
+        <v>129833</v>
       </c>
       <c r="H3" s="3">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>61.5</v>
+        <v>61.4</v>
       </c>
       <c r="D4" s="3">
-        <v>57.8</v>
+        <v>59.2</v>
       </c>
       <c r="E4" s="3">
-        <v>3520905.0</v>
+        <v>3582440</v>
       </c>
       <c r="F4" s="3">
-        <v>3308449.0</v>
+        <v>3451918</v>
       </c>
       <c r="G4" s="3">
-        <v>212456.0</v>
+        <v>130522</v>
       </c>
       <c r="H4" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -459,24 +480,24 @@
         <v>61.5</v>
       </c>
       <c r="D5" s="3">
-        <v>57.9</v>
+        <v>59.2</v>
       </c>
       <c r="E5" s="3">
-        <v>3526591.0</v>
+        <v>3591017</v>
       </c>
       <c r="F5" s="3">
-        <v>3320977.0</v>
+        <v>3459432</v>
       </c>
       <c r="G5" s="3">
-        <v>205614.0</v>
+        <v>131585</v>
       </c>
       <c r="H5" s="3">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -485,1140 +506,828 @@
         <v>61.5</v>
       </c>
       <c r="D6" s="3">
-        <v>58.0</v>
+        <v>59.2</v>
       </c>
       <c r="E6" s="3">
-        <v>3529757.0</v>
+        <v>3598401</v>
       </c>
       <c r="F6" s="3">
-        <v>3333770.0</v>
+        <v>3465615</v>
       </c>
       <c r="G6" s="3">
-        <v>195987.0</v>
+        <v>132786</v>
       </c>
       <c r="H6" s="3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>61.4</v>
+        <v>61.5</v>
       </c>
       <c r="D7" s="3">
-        <v>58.2</v>
+        <v>59.2</v>
       </c>
       <c r="E7" s="3">
-        <v>3531746.0</v>
+        <v>3604789</v>
       </c>
       <c r="F7" s="3">
-        <v>3345615.0</v>
+        <v>3470390</v>
       </c>
       <c r="G7" s="3">
-        <v>186131.0</v>
+        <v>134399</v>
       </c>
       <c r="H7" s="3">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>61.3</v>
+        <v>61.5</v>
       </c>
       <c r="D8" s="3">
-        <v>58.3</v>
+        <v>59.1</v>
       </c>
       <c r="E8" s="3">
-        <v>3530875.0</v>
+        <v>3610278</v>
       </c>
       <c r="F8" s="3">
-        <v>3356751.0</v>
+        <v>3473828</v>
       </c>
       <c r="G8" s="3">
-        <v>174124.0</v>
+        <v>136450</v>
       </c>
       <c r="H8" s="3">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>61.1</v>
+        <v>61.5</v>
       </c>
       <c r="D9" s="3">
-        <v>58.4</v>
+        <v>59.1</v>
       </c>
       <c r="E9" s="3">
-        <v>3529559.0</v>
+        <v>3615346</v>
       </c>
       <c r="F9" s="3">
-        <v>3367999.0</v>
+        <v>3477004</v>
       </c>
       <c r="G9" s="3">
-        <v>161560.0</v>
+        <v>138342</v>
       </c>
       <c r="H9" s="3">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>61.1</v>
+        <v>61.4</v>
       </c>
       <c r="D10" s="3">
-        <v>58.5</v>
+        <v>59.1</v>
       </c>
       <c r="E10" s="3">
-        <v>3529618.0</v>
+        <v>3620165</v>
       </c>
       <c r="F10" s="3">
-        <v>3379850.0</v>
+        <v>3481101</v>
       </c>
       <c r="G10" s="3">
-        <v>149768.0</v>
+        <v>139064</v>
       </c>
       <c r="H10" s="3">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>61.0</v>
+        <v>61.4</v>
       </c>
       <c r="D11" s="3">
-        <v>58.6</v>
+        <v>59.1</v>
       </c>
       <c r="E11" s="3">
-        <v>3533468.0</v>
+        <v>3625480</v>
       </c>
       <c r="F11" s="3">
-        <v>3392779.0</v>
+        <v>3486771</v>
       </c>
       <c r="G11" s="3">
-        <v>140689.0</v>
+        <v>138709</v>
       </c>
       <c r="H11" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="3">
-        <v>61.0</v>
+        <v>61.4</v>
       </c>
       <c r="D12" s="3">
-        <v>58.7</v>
+        <v>59.1</v>
       </c>
       <c r="E12" s="3">
-        <v>3540595.0</v>
+        <v>3631736</v>
       </c>
       <c r="F12" s="3">
-        <v>3406120.0</v>
+        <v>3494337</v>
       </c>
       <c r="G12" s="3">
-        <v>134475.0</v>
+        <v>137399</v>
       </c>
       <c r="H12" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>2021.0</v>
+        <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>61.1</v>
+        <v>61.5</v>
       </c>
       <c r="D13" s="3">
-        <v>58.9</v>
+        <v>59.2</v>
       </c>
       <c r="E13" s="3">
-        <v>3550232.0</v>
+        <v>3639216</v>
       </c>
       <c r="F13" s="3">
-        <v>3419286.0</v>
+        <v>3503723</v>
       </c>
       <c r="G13" s="3">
-        <v>130946.0</v>
+        <v>135493</v>
       </c>
       <c r="H13" s="3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>61.2</v>
+        <v>61.5</v>
       </c>
       <c r="D14" s="3">
-        <v>59.0</v>
+        <v>59.3</v>
       </c>
       <c r="E14" s="3">
-        <v>3561568.0</v>
+        <v>3647901</v>
       </c>
       <c r="F14" s="3">
-        <v>3431674.0</v>
+        <v>3514108</v>
       </c>
       <c r="G14" s="3">
-        <v>129894.0</v>
+        <v>133793</v>
       </c>
       <c r="H14" s="3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>61.3</v>
+        <v>61.6</v>
       </c>
       <c r="D15" s="3">
-        <v>59.1</v>
+        <v>59.4</v>
       </c>
       <c r="E15" s="3">
-        <v>3572577.0</v>
+        <v>3657707</v>
       </c>
       <c r="F15" s="3">
-        <v>3442744.0</v>
+        <v>3524998</v>
       </c>
       <c r="G15" s="3">
-        <v>129833.0</v>
+        <v>132709</v>
       </c>
       <c r="H15" s="3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="3">
-        <v>61.4</v>
+        <v>61.7</v>
       </c>
       <c r="D16" s="3">
-        <v>59.2</v>
+        <v>59.5</v>
       </c>
       <c r="E16" s="3">
-        <v>3582440.0</v>
+        <v>3667950</v>
       </c>
       <c r="F16" s="3">
-        <v>3451918.0</v>
+        <v>3535593</v>
       </c>
       <c r="G16" s="3">
-        <v>130522.0</v>
+        <v>132357</v>
       </c>
       <c r="H16" s="3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="3">
-        <v>61.5</v>
+        <v>61.8</v>
       </c>
       <c r="D17" s="3">
-        <v>59.2</v>
+        <v>59.6</v>
       </c>
       <c r="E17" s="3">
-        <v>3591017.0</v>
+        <v>3677923</v>
       </c>
       <c r="F17" s="3">
-        <v>3459432.0</v>
+        <v>3545325</v>
       </c>
       <c r="G17" s="3">
-        <v>131585.0</v>
+        <v>132598</v>
       </c>
       <c r="H17" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3">
-        <v>61.5</v>
+        <v>61.8</v>
       </c>
       <c r="D18" s="3">
-        <v>59.2</v>
+        <v>59.6</v>
       </c>
       <c r="E18" s="3">
-        <v>3598401.0</v>
+        <v>3687152</v>
       </c>
       <c r="F18" s="3">
-        <v>3465615.0</v>
+        <v>3553602</v>
       </c>
       <c r="G18" s="3">
-        <v>132786.0</v>
+        <v>133550</v>
       </c>
       <c r="H18" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="3">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
       <c r="D19" s="3">
-        <v>59.2</v>
+        <v>59.6</v>
       </c>
       <c r="E19" s="3">
-        <v>3604789.0</v>
+        <v>3695900</v>
       </c>
       <c r="F19" s="3">
-        <v>3470390.0</v>
+        <v>3560962</v>
       </c>
       <c r="G19" s="3">
-        <v>134399.0</v>
+        <v>134938</v>
       </c>
       <c r="H19" s="3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="3">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
       <c r="D20" s="3">
-        <v>59.1</v>
+        <v>59.7</v>
       </c>
       <c r="E20" s="3">
-        <v>3610278.0</v>
+        <v>3704255</v>
       </c>
       <c r="F20" s="3">
-        <v>3473828.0</v>
+        <v>3567602</v>
       </c>
       <c r="G20" s="3">
-        <v>136450.0</v>
+        <v>136653</v>
       </c>
       <c r="H20" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="3">
-        <v>61.5</v>
+        <v>62</v>
       </c>
       <c r="D21" s="3">
-        <v>59.1</v>
+        <v>59.6</v>
       </c>
       <c r="E21" s="3">
-        <v>3615346.0</v>
+        <v>3711585</v>
       </c>
       <c r="F21" s="3">
-        <v>3477004.0</v>
+        <v>3573214</v>
       </c>
       <c r="G21" s="3">
-        <v>138342.0</v>
+        <v>138371</v>
       </c>
       <c r="H21" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>61.4</v>
+        <v>61.9</v>
       </c>
       <c r="D22" s="3">
-        <v>59.1</v>
+        <v>59.6</v>
       </c>
       <c r="E22" s="3">
-        <v>3620165.0</v>
+        <v>3717549</v>
       </c>
       <c r="F22" s="3">
-        <v>3481101.0</v>
+        <v>3578079</v>
       </c>
       <c r="G22" s="3">
-        <v>139064.0</v>
+        <v>139470</v>
       </c>
       <c r="H22" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>61.4</v>
+        <v>61.9</v>
       </c>
       <c r="D23" s="3">
-        <v>59.1</v>
+        <v>59.6</v>
       </c>
       <c r="E23" s="3">
-        <v>3625480.0</v>
+        <v>3721935</v>
       </c>
       <c r="F23" s="3">
-        <v>3486771.0</v>
+        <v>3582588</v>
       </c>
       <c r="G23" s="3">
-        <v>138709.0</v>
+        <v>139347</v>
       </c>
       <c r="H23" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3">
-        <v>61.4</v>
+        <v>61.9</v>
       </c>
       <c r="D24" s="3">
-        <v>59.1</v>
+        <v>59.6</v>
       </c>
       <c r="E24" s="3">
-        <v>3631736.0</v>
+        <v>3724906</v>
       </c>
       <c r="F24" s="3">
-        <v>3494337.0</v>
+        <v>3587335</v>
       </c>
       <c r="G24" s="3">
-        <v>137399.0</v>
+        <v>137571</v>
       </c>
       <c r="H24" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>2022.0</v>
+        <v>2023</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3">
-        <v>61.5</v>
+        <v>61.8</v>
       </c>
       <c r="D25" s="3">
-        <v>59.2</v>
+        <v>59.6</v>
       </c>
       <c r="E25" s="3">
-        <v>3639216.0</v>
+        <v>3726754</v>
       </c>
       <c r="F25" s="3">
-        <v>3503723.0</v>
+        <v>3592525</v>
       </c>
       <c r="G25" s="3">
-        <v>135493.0</v>
+        <v>134229</v>
       </c>
       <c r="H25" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>61.5</v>
+        <v>61.7</v>
       </c>
       <c r="D26" s="3">
-        <v>59.3</v>
+        <v>59.6</v>
       </c>
       <c r="E26" s="3">
-        <v>3647901.0</v>
+        <v>3727902</v>
       </c>
       <c r="F26" s="3">
-        <v>3514108.0</v>
+        <v>3597938</v>
       </c>
       <c r="G26" s="3">
-        <v>133793.0</v>
+        <v>129964</v>
       </c>
       <c r="H26" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>61.6</v>
+        <v>61.7</v>
       </c>
       <c r="D27" s="3">
-        <v>59.4</v>
+        <v>59.6</v>
       </c>
       <c r="E27" s="3">
-        <v>3657707.0</v>
+        <v>3729543</v>
       </c>
       <c r="F27" s="3">
-        <v>3524998.0</v>
+        <v>3603174</v>
       </c>
       <c r="G27" s="3">
-        <v>132709.0</v>
+        <v>126369</v>
       </c>
       <c r="H27" s="3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="3">
-        <v>61.7</v>
+        <v>61.6</v>
       </c>
       <c r="D28" s="3">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="E28" s="3">
-        <v>3667950.0</v>
+        <v>3732127</v>
       </c>
       <c r="F28" s="3">
-        <v>3535593.0</v>
+        <v>3607391</v>
       </c>
       <c r="G28" s="3">
-        <v>132357.0</v>
+        <v>124736</v>
       </c>
       <c r="H28" s="3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="3">
-        <v>61.8</v>
+        <v>61.6</v>
       </c>
       <c r="D29" s="3">
-        <v>59.6</v>
+        <v>59.5</v>
       </c>
       <c r="E29" s="3">
-        <v>3677923.0</v>
+        <v>3735416</v>
       </c>
       <c r="F29" s="3">
-        <v>3545325.0</v>
+        <v>3610053</v>
       </c>
       <c r="G29" s="3">
-        <v>132598.0</v>
+        <v>125363</v>
       </c>
       <c r="H29" s="3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="3">
-        <v>61.8</v>
+        <v>61.5</v>
       </c>
       <c r="D30" s="3">
-        <v>59.6</v>
+        <v>59.4</v>
       </c>
       <c r="E30" s="3">
-        <v>3687152.0</v>
+        <v>3739245</v>
       </c>
       <c r="F30" s="3">
-        <v>3553602.0</v>
+        <v>3611476</v>
       </c>
       <c r="G30" s="3">
-        <v>133550.0</v>
+        <v>127769</v>
       </c>
       <c r="H30" s="3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3">
-        <v>61.9</v>
+        <v>61.5</v>
       </c>
       <c r="D31" s="3">
-        <v>59.6</v>
+        <v>59.3</v>
       </c>
       <c r="E31" s="3">
-        <v>3695900.0</v>
+        <v>3743152</v>
       </c>
       <c r="F31" s="3">
-        <v>3560962.0</v>
+        <v>3611818</v>
       </c>
       <c r="G31" s="3">
-        <v>134938.0</v>
+        <v>131334</v>
       </c>
       <c r="H31" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3">
-        <v>61.9</v>
+        <v>61.5</v>
       </c>
       <c r="D32" s="3">
-        <v>59.7</v>
+        <v>59.2</v>
       </c>
       <c r="E32" s="3">
-        <v>3704255.0</v>
+        <v>3747424</v>
       </c>
       <c r="F32" s="3">
-        <v>3567602.0</v>
+        <v>3611730</v>
       </c>
       <c r="G32" s="3">
-        <v>136653.0</v>
+        <v>135694</v>
       </c>
       <c r="H32" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="3">
-        <v>62.0</v>
+        <v>61.5</v>
       </c>
       <c r="D33" s="3">
-        <v>59.6</v>
+        <v>59.2</v>
       </c>
       <c r="E33" s="3">
-        <v>3711585.0</v>
+        <v>3752147</v>
       </c>
       <c r="F33" s="3">
-        <v>3573214.0</v>
+        <v>3612292</v>
       </c>
       <c r="G33" s="3">
-        <v>138371.0</v>
+        <v>139855</v>
       </c>
       <c r="H33" s="3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="3">
-        <v>61.9</v>
+        <v>61.5</v>
       </c>
       <c r="D34" s="3">
-        <v>59.6</v>
+        <v>59.1</v>
       </c>
       <c r="E34" s="3">
-        <v>3717549.0</v>
+        <v>3756696</v>
       </c>
       <c r="F34" s="3">
-        <v>3578079.0</v>
+        <v>3613677</v>
       </c>
       <c r="G34" s="3">
-        <v>139470.0</v>
+        <v>143019</v>
       </c>
       <c r="H34" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="3">
-        <v>61.9</v>
+        <v>61.4</v>
       </c>
       <c r="D35" s="3">
-        <v>59.6</v>
+        <v>59.1</v>
       </c>
       <c r="E35" s="3">
-        <v>3721935.0</v>
+        <v>3760101</v>
       </c>
       <c r="F35" s="3">
-        <v>3582588.0</v>
+        <v>3615168</v>
       </c>
       <c r="G35" s="3">
-        <v>139347.0</v>
+        <v>144933</v>
       </c>
       <c r="H35" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="3">
-        <v>61.9</v>
+        <v>61.4</v>
       </c>
       <c r="D36" s="3">
-        <v>59.6</v>
+        <v>59</v>
       </c>
       <c r="E36" s="3">
-        <v>3724906.0</v>
+        <v>3760610</v>
       </c>
       <c r="F36" s="3">
-        <v>3587335.0</v>
+        <v>3615723</v>
       </c>
       <c r="G36" s="3">
-        <v>137571.0</v>
+        <v>144887</v>
       </c>
       <c r="H36" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>2023.0</v>
+        <v>2024</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="3">
-        <v>61.8</v>
+        <v>61.3</v>
       </c>
       <c r="D37" s="3">
-        <v>59.6</v>
+        <v>58.9</v>
       </c>
       <c r="E37" s="3">
-        <v>3726754.0</v>
+        <v>3760217</v>
       </c>
       <c r="F37" s="3">
-        <v>3592525.0</v>
+        <v>3615734</v>
       </c>
       <c r="G37" s="3">
-        <v>134229.0</v>
+        <v>144483</v>
       </c>
       <c r="H37" s="3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>61.7</v>
-      </c>
-      <c r="D38" s="3">
-        <v>59.6</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3727902.0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3597938.0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>129964.0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="3">
-        <v>61.7</v>
-      </c>
-      <c r="D39" s="3">
-        <v>59.6</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3729543.0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>3603174.0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>126369.0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="3">
-        <v>61.6</v>
-      </c>
-      <c r="D40" s="3">
-        <v>59.6</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3732127.0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3607391.0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>124736.0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="3">
-        <v>61.6</v>
-      </c>
-      <c r="D41" s="3">
-        <v>59.5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3735416.0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>3610053.0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>125363.0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="D42" s="3">
-        <v>59.4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3739245.0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>3611476.0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>127769.0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="D43" s="3">
-        <v>59.3</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3743152.0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3611818.0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>131334.0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="D44" s="3">
-        <v>59.2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3747424.0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3611730.0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>135694.0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="D45" s="3">
-        <v>59.2</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3752147.0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3612292.0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>139855.0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="D46" s="3">
-        <v>59.1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3756696.0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3613677.0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>143019.0</v>
-      </c>
-      <c r="H46" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="3">
-        <v>61.4</v>
-      </c>
-      <c r="D47" s="3">
-        <v>59.1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3760101.0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3615168.0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>144933.0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="3">
-        <v>61.4</v>
-      </c>
-      <c r="D48" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3760610.0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3615723.0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>144887.0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2">
-        <v>2024.0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="3">
-        <v>61.3</v>
-      </c>
-      <c r="D49" s="3">
-        <v>58.9</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3760217.0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3615734.0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>144483.0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>